--- a/user_interface/src/medacademy/model/excels/Внутренняя_отчетность_шаблон.xlsx
+++ b/user_interface/src/medacademy/model/excels/Внутренняя_отчетность_шаблон.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boris\Desktop\Проект_17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Java_WorkStation\Projects\MedAcademy\src\medacademy\model\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11145" tabRatio="854"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11145" tabRatio="854" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1_Обобщенная по приему" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -990,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
